--- a/611_CN-TRADE DISCOUNT GELUSIL MPS LIQUID 200ML-A.xlsx
+++ b/611_CN-TRADE DISCOUNT GELUSIL MPS LIQUID 200ML-A.xlsx
@@ -419,2758 +419,2920 @@
         <v>GrandTotal</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" xml:space="preserve">
       <c r="A2" t="str">
         <v>UMA ENTERPRISES[BR0237]</v>
       </c>
       <c r="B2" t="str">
         <v>611/23/T1-2366</v>
       </c>
-      <c r="C2" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C2" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D2" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E2" t="str">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
       <c r="A3" t="str">
         <v>FRIENDS MEDICAL STORE[BR0239]</v>
       </c>
       <c r="B3" t="str">
         <v>611/23/T1-2367</v>
       </c>
-      <c r="C3" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C3" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D3" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E3" t="str">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
       <c r="A4" t="str">
         <v>MANOJ PHARMA[BR0240]</v>
       </c>
       <c r="B4" t="str">
         <v>611/23/T1-2368</v>
       </c>
-      <c r="C4" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C4" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D4" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E4" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
       <c r="A5" t="str">
         <v>MANOJ PHARMA[BR0240]</v>
       </c>
       <c r="B5" t="str">
         <v>611/23/T1-2369</v>
       </c>
-      <c r="C5" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C5" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D5" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E5" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
       <c r="A6" t="str">
         <v>SHRI LAXMI PHARMA[BR0243]</v>
       </c>
       <c r="B6" t="str">
         <v>611/23/T1-2370</v>
       </c>
-      <c r="C6" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C6" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D6" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E6" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
       <c r="A7" t="str">
         <v>ADARSH MEDICAL STORE[BR0244]</v>
       </c>
       <c r="B7" t="str">
         <v>611/23/T1-2371</v>
       </c>
-      <c r="C7" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C7" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D7" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E7" t="str">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
       <c r="A8" t="str">
         <v>RAMA AGENCIES[BR0245]</v>
       </c>
       <c r="B8" t="str">
         <v>611/23/T1-2372</v>
       </c>
-      <c r="C8" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C8" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D8" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E8" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
       <c r="A9" t="str">
         <v>MEDICOS[BR0258]</v>
       </c>
       <c r="B9" t="str">
         <v>611/23/T1-2373</v>
       </c>
-      <c r="C9" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C9" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D9" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E9" t="str">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
       <c r="A10" t="str">
         <v>MEDICOS[BR0258]</v>
       </c>
       <c r="B10" t="str">
         <v>611/23/T1-2374</v>
       </c>
-      <c r="C10" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C10" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D10" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E10" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
       <c r="A11" t="str">
         <v>MEDICOS[BR0258]</v>
       </c>
       <c r="B11" t="str">
         <v>611/23/T1-2375</v>
       </c>
-      <c r="C11" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C11" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D11" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E11" t="str">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
       <c r="A12" t="str">
         <v>ANAND PHARMACEUTICALS[BR0263]</v>
       </c>
       <c r="B12" t="str">
         <v>611/23/T1-2376</v>
       </c>
-      <c r="C12" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C12" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D12" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E12" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
       <c r="A13" t="str">
         <v>ANAND PHARMACEUTICALS[BR0263]</v>
       </c>
       <c r="B13" t="str">
         <v>611/23/T1-2377</v>
       </c>
-      <c r="C13" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C13" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D13" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E13" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>047</v>
+      </c>
+    </row>
+    <row r="14" xml:space="preserve">
       <c r="A14" t="str">
         <v>MOHAN AGENCIES[BR0266]</v>
       </c>
       <c r="B14" t="str">
         <v>611/23/T1-2378</v>
       </c>
-      <c r="C14" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C14" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D14" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E14" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="15" xml:space="preserve">
       <c r="A15" t="str">
         <v>MOHAN AGENCIES[BR0266]</v>
       </c>
       <c r="B15" t="str">
         <v>611/23/T1-2379</v>
       </c>
-      <c r="C15" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C15" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D15" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E15" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="16" xml:space="preserve">
       <c r="A16" t="str">
         <v>SHYAM MANOHAR V.VERMA[BR0269]</v>
       </c>
       <c r="B16" t="str">
         <v>611/23/T1-2380</v>
       </c>
-      <c r="C16" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C16" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D16" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E16" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="17" xml:space="preserve">
       <c r="A17" t="str">
         <v>DRUG CENTRE[BR0274]</v>
       </c>
       <c r="B17" t="str">
         <v>611/23/T1-2381</v>
       </c>
-      <c r="C17" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C17" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D17" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E17" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
       <c r="A18" t="str">
         <v>UNITED PHARMA[UP0276]</v>
       </c>
       <c r="B18" t="str">
         <v>611/23/T1-2382</v>
       </c>
-      <c r="C18" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C18" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D18" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E18" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>036</v>
+      </c>
+    </row>
+    <row r="19" xml:space="preserve">
       <c r="A19" t="str">
         <v>UNITED PHARMA[UP0276]</v>
       </c>
       <c r="B19" t="str">
         <v>611/23/T1-2383</v>
       </c>
-      <c r="C19" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C19" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D19" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E19" t="str">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>17100</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
       <c r="A20" t="str">
         <v>UNITED PHARMA[UP0276]</v>
       </c>
       <c r="B20" t="str">
         <v>611/23/T1-2384</v>
       </c>
-      <c r="C20" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C20" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D20" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E20" t="str">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="21" xml:space="preserve">
       <c r="A21" t="str">
         <v>GOPAL MEDICAL STORE[UP0277]</v>
       </c>
       <c r="B21" t="str">
         <v>611/23/T1-2385</v>
       </c>
-      <c r="C21" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C21" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D21" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E21" t="str">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>21300</v>
+      </c>
+    </row>
+    <row r="22" xml:space="preserve">
       <c r="A22" t="str">
         <v>GOPAL MEDICAL STORE[UP0277]</v>
       </c>
       <c r="B22" t="str">
         <v>611/23/T1-2386</v>
       </c>
-      <c r="C22" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C22" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D22" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E22" t="str">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>29100</v>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
       <c r="A23" t="str">
         <v>GOPAL MEDICAL STORE[UP0277]</v>
       </c>
       <c r="B23" t="str">
         <v>611/23/T1-2387</v>
       </c>
-      <c r="C23" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C23" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D23" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E23" t="str">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>18800</v>
+      </c>
+    </row>
+    <row r="24" xml:space="preserve">
       <c r="A24" t="str">
         <v>MADAN LAL GYAN CHAND[UP0279]</v>
       </c>
       <c r="B24" t="str">
         <v>611/23/T1-2388</v>
       </c>
-      <c r="C24" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C24" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D24" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E24" t="str">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="25" xml:space="preserve">
       <c r="A25" t="str">
         <v>MADAN LAL GYAN CHAND[UP0279]</v>
       </c>
       <c r="B25" t="str">
         <v>611/23/T1-2389</v>
       </c>
-      <c r="C25" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C25" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D25" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E25" t="str">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>21300</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
       <c r="A26" t="str">
         <v>NEW PUNEET MEDICAL STORE[UP0280]</v>
       </c>
       <c r="B26" t="str">
         <v>611/23/T1-2390</v>
       </c>
-      <c r="C26" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C26" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D26" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E26" t="str">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>21300</v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
       <c r="A27" t="str">
         <v>NEW PUNEET MEDICAL STORE[UP0280]</v>
       </c>
       <c r="B27" t="str">
         <v>611/23/T1-2391</v>
       </c>
-      <c r="C27" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C27" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D27" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E27" t="str">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>23500</v>
+      </c>
+    </row>
+    <row r="28" xml:space="preserve">
       <c r="A28" t="str">
         <v>SWASTIK MEDICAL AGENCY[UP0290]</v>
       </c>
       <c r="B28" t="str">
         <v>611/23/T1-2392</v>
       </c>
-      <c r="C28" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C28" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D28" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E28" t="str">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="29" xml:space="preserve">
       <c r="A29" t="str">
         <v>H.A.L PHARMA[UP0295]</v>
       </c>
       <c r="B29" t="str">
         <v>611/23/T1-2393</v>
       </c>
-      <c r="C29" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C29" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D29" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E29" t="str">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="30" xml:space="preserve">
       <c r="A30" t="str">
         <v>SEVAK MEDICAL DISTRIBUTORS[UP0298]</v>
       </c>
       <c r="B30" t="str">
         <v>611/23/T1-2394</v>
       </c>
-      <c r="C30" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C30" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D30" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E30" t="str">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="31" xml:space="preserve">
       <c r="A31" t="str">
         <v>SEVAK MEDICAL DISTRIBUTORS[UP0298]</v>
       </c>
       <c r="B31" t="str">
         <v>611/23/T1-2395</v>
       </c>
-      <c r="C31" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C31" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D31" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E31" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="32" xml:space="preserve">
       <c r="A32" t="str">
         <v>RANA AGENCIES[UP0307]</v>
       </c>
       <c r="B32" t="str">
         <v>611/23/T1-2396</v>
       </c>
-      <c r="C32" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C32" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D32" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E32" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="33" xml:space="preserve">
       <c r="A33" t="str">
         <v>RANA AGENCIES[UP0307]</v>
       </c>
       <c r="B33" t="str">
         <v>611/23/T1-2397</v>
       </c>
-      <c r="C33" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C33" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D33" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E33" t="str">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="34" xml:space="preserve">
       <c r="A34" t="str">
         <v>TRIPATHI MEDICAL AGENCIES[UP0308]</v>
       </c>
       <c r="B34" t="str">
         <v>611/23/T1-2398</v>
       </c>
-      <c r="C34" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C34" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D34" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E34" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="35" xml:space="preserve">
       <c r="A35" t="str">
         <v>PAWAN PHARMA[UP0315]</v>
       </c>
       <c r="B35" t="str">
         <v>611/23/T1-2399</v>
       </c>
-      <c r="C35" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C35" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D35" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E35" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="36" xml:space="preserve">
       <c r="A36" t="str">
         <v>NARESH CHANDRA AGARWAL MED STO[UP0319]</v>
       </c>
       <c r="B36" t="str">
         <v>611/23/T1-2400</v>
       </c>
-      <c r="C36" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C36" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D36" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E36" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="37" xml:space="preserve">
       <c r="A37" t="str">
         <v>NARESH CHANDRA AGARWAL MED STO[UP0319]</v>
       </c>
       <c r="B37" t="str">
         <v>611/23/T1-2401</v>
       </c>
-      <c r="C37" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C37" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D37" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E37" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="38" xml:space="preserve">
       <c r="A38" t="str">
         <v>GARG ENTERPRISES[UP0320]</v>
       </c>
       <c r="B38" t="str">
         <v>611/23/T1-2402</v>
       </c>
-      <c r="C38" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C38" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D38" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E38" t="str">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>10700</v>
+      </c>
+    </row>
+    <row r="39" xml:space="preserve">
       <c r="A39" t="str">
         <v>AJANTA AGENCIES[UP0321]</v>
       </c>
       <c r="B39" t="str">
         <v>611/23/T1-2403</v>
       </c>
-      <c r="C39" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C39" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D39" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E39" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="40" xml:space="preserve">
       <c r="A40" t="str">
         <v>AJANTA AGENCIES[UP0321]</v>
       </c>
       <c r="B40" t="str">
         <v>611/23/T1-2404</v>
       </c>
-      <c r="C40" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C40" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D40" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E40" t="str">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="41" xml:space="preserve">
       <c r="A41" t="str">
         <v>AJANTA AGENCIES[UP0321]</v>
       </c>
       <c r="B41" t="str">
         <v>611/23/T1-2405</v>
       </c>
-      <c r="C41" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C41" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D41" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E41" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="42" xml:space="preserve">
       <c r="A42" t="str">
         <v>KUMAR PHARMA[UP0322]</v>
       </c>
       <c r="B42" t="str">
         <v>611/23/T1-2406</v>
       </c>
-      <c r="C42" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C42" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D42" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E42" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="43" xml:space="preserve">
       <c r="A43" t="str">
         <v>KUMAR PHARMA[UP0322]</v>
       </c>
       <c r="B43" t="str">
         <v>611/23/T1-2407</v>
       </c>
-      <c r="C43" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C43" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D43" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E43" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="44" xml:space="preserve">
       <c r="A44" t="str">
         <v>MEDICINE TRADERS[UP0327]</v>
       </c>
       <c r="B44" t="str">
         <v>611/23/T1-2408</v>
       </c>
-      <c r="C44" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C44" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D44" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E44" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="45" xml:space="preserve">
       <c r="A45" t="str">
         <v>MEDICINE TRADERS[UP0327]</v>
       </c>
       <c r="B45" t="str">
         <v>611/23/T1-2409</v>
       </c>
-      <c r="C45" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C45" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D45" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E45" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="46" xml:space="preserve">
       <c r="A46" t="str">
         <v>VIJAY MEDCAL AGENCIES[UP0330]</v>
       </c>
       <c r="B46" t="str">
         <v>611/23/T1-2410</v>
       </c>
-      <c r="C46" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C46" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D46" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E46" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="47" xml:space="preserve">
       <c r="A47" t="str">
         <v>VIJAY MEDCAL AGENCIES[UP0330]</v>
       </c>
       <c r="B47" t="str">
         <v>611/23/T1-2411</v>
       </c>
-      <c r="C47" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C47" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D47" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E47" t="str">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="48" xml:space="preserve">
       <c r="A48" t="str">
         <v>VIJAY MEDCAL AGENCIES[UP0330]</v>
       </c>
       <c r="B48" t="str">
         <v>611/23/T1-2412</v>
       </c>
-      <c r="C48" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C48" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D48" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E48" t="str">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="49" xml:space="preserve">
       <c r="A49" t="str">
         <v>SHIVAM DRUG AGENCY[UP0335]</v>
       </c>
       <c r="B49" t="str">
         <v>611/23/T1-2413</v>
       </c>
-      <c r="C49" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C49" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D49" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E49" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="50" xml:space="preserve">
       <c r="A50" t="str">
         <v>SHIVAM DRUG AGENCY[UP0335]</v>
       </c>
       <c r="B50" t="str">
         <v>611/23/T1-2414</v>
       </c>
-      <c r="C50" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C50" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D50" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E50" t="str">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="51" xml:space="preserve">
       <c r="A51" t="str">
         <v>SHIVAM DRUG AGENCY[UP0335]</v>
       </c>
       <c r="B51" t="str">
         <v>611/23/T1-2415</v>
       </c>
-      <c r="C51" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C51" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D51" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E51" t="str">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="52" xml:space="preserve">
       <c r="A52" t="str">
         <v>SHIVAM DRUG AGENCY[UP0335]</v>
       </c>
       <c r="B52" t="str">
         <v>611/23/T1-2416</v>
       </c>
-      <c r="C52" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C52" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D52" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E52" t="str">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="53" xml:space="preserve">
       <c r="A53" t="str">
         <v>SHIVAM DRUG AGENCY[UP0335]</v>
       </c>
       <c r="B53" t="str">
         <v>611/23/T1-2417</v>
       </c>
-      <c r="C53" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C53" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D53" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E53" t="str">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>57900</v>
+      </c>
+    </row>
+    <row r="54" xml:space="preserve">
       <c r="A54" t="str">
         <v>AVAISH PHARMA[UP0342]</v>
       </c>
       <c r="B54" t="str">
         <v>611/23/T1-2418</v>
       </c>
-      <c r="C54" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C54" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D54" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E54" t="str">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="55" xml:space="preserve">
       <c r="A55" t="str">
         <v>KRISHNA MEDICAL STORES[UP0345]</v>
       </c>
       <c r="B55" t="str">
         <v>611/23/T1-2419</v>
       </c>
-      <c r="C55" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C55" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D55" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E55" t="str">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>14100</v>
+      </c>
+    </row>
+    <row r="56" xml:space="preserve">
       <c r="A56" t="str">
         <v>KRISHNA MEDICAL STORES[UP0345]</v>
       </c>
       <c r="B56" t="str">
         <v>611/23/T1-2420</v>
       </c>
-      <c r="C56" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C56" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D56" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E56" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="57" xml:space="preserve">
       <c r="A57" t="str">
         <v>KRISHNA MEDICAL STORES[UP0345]</v>
       </c>
       <c r="B57" t="str">
         <v>611/23/T1-2421</v>
       </c>
-      <c r="C57" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C57" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D57" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E57" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="58" xml:space="preserve">
       <c r="A58" t="str">
         <v>KUSHWAHA MEDICAL AGENCIES[UP0347]</v>
       </c>
       <c r="B58" t="str">
         <v>611/23/T1-2422</v>
       </c>
-      <c r="C58" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C58" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D58" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E58" t="str">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="59" xml:space="preserve">
       <c r="A59" t="str">
         <v>MEDICO DAWA KENDRA[UP0348]</v>
       </c>
       <c r="B59" t="str">
         <v>611/23/T1-2423</v>
       </c>
-      <c r="C59" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C59" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D59" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E59" t="str">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>23200</v>
+      </c>
+    </row>
+    <row r="60" xml:space="preserve">
       <c r="A60" t="str">
         <v>MEDICO DAWA KENDRA[UP0348]</v>
       </c>
       <c r="B60" t="str">
         <v>611/23/T1-2424</v>
       </c>
-      <c r="C60" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C60" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D60" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E60" t="str">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" xml:space="preserve">
       <c r="A61" t="str">
         <v>MEDICO DAWA KENDRA[UP0348]</v>
       </c>
       <c r="B61" t="str">
         <v>611/23/T1-2425</v>
       </c>
-      <c r="C61" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C61" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D61" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E61" t="str">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="62" xml:space="preserve">
       <c r="A62" t="str">
         <v>AMIT PHARMA[UP0350]</v>
       </c>
       <c r="B62" t="str">
         <v>611/23/T1-2426</v>
       </c>
-      <c r="C62" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C62" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D62" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E62" t="str">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="63" xml:space="preserve">
       <c r="A63" t="str">
         <v>AMIT PHARMA[UP0350]</v>
       </c>
       <c r="B63" t="str">
         <v>611/23/T1-2427</v>
       </c>
-      <c r="C63" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C63" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D63" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E63" t="str">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>53100</v>
+      </c>
+    </row>
+    <row r="64" xml:space="preserve">
       <c r="A64" t="str">
         <v>ASHOKA PHARMACUITICALS[UP0351]</v>
       </c>
       <c r="B64" t="str">
         <v>611/23/T1-2428</v>
       </c>
-      <c r="C64" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C64" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D64" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E64" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="65" xml:space="preserve">
       <c r="A65" t="str">
         <v>DRUG CENTRE[UP0358]</v>
       </c>
       <c r="B65" t="str">
         <v>611/23/T1-2429</v>
       </c>
-      <c r="C65" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C65" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D65" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E65" t="str">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>21300</v>
+      </c>
+    </row>
+    <row r="66" xml:space="preserve">
       <c r="A66" t="str">
         <v>DRUG CENTRE[UP0358]</v>
       </c>
       <c r="B66" t="str">
         <v>611/23/T1-2430</v>
       </c>
-      <c r="C66" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C66" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D66" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E66" t="str">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>59800</v>
+      </c>
+    </row>
+    <row r="67" xml:space="preserve">
       <c r="A67" t="str">
         <v>DRUG CENTRE[UP0358]</v>
       </c>
       <c r="B67" t="str">
         <v>611/23/T1-2431</v>
       </c>
-      <c r="C67" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C67" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D67" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E67" t="str">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="68" xml:space="preserve">
       <c r="A68" t="str">
         <v>DRUG CENTRE[UP0358]</v>
       </c>
       <c r="B68" t="str">
         <v>611/23/T1-2432</v>
       </c>
-      <c r="C68" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C68" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D68" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E68" t="str">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>70400</v>
+      </c>
+    </row>
+    <row r="69" xml:space="preserve">
       <c r="A69" t="str">
         <v>GOLDEN MEDICAL AGENCIES[UP0359]</v>
       </c>
       <c r="B69" t="str">
         <v>611/23/T1-2433</v>
       </c>
-      <c r="C69" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C69" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D69" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E69" t="str">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="70" xml:space="preserve">
       <c r="A70" t="str">
         <v>GOLDEN MEDICAL AGENCIES[UP0359]</v>
       </c>
       <c r="B70" t="str">
         <v>611/23/T1-2434</v>
       </c>
-      <c r="C70" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C70" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D70" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E70" t="str">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="71" xml:space="preserve">
       <c r="A71" t="str">
         <v>GOLDEN MEDICAL AGENCIES[UP0359]</v>
       </c>
       <c r="B71" t="str">
         <v>611/23/T1-2435</v>
       </c>
-      <c r="C71" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C71" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D71" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E71" t="str">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>17900</v>
+      </c>
+    </row>
+    <row r="72" xml:space="preserve">
       <c r="A72" t="str">
         <v>SHYAM MEDICAL AGENCY[UP0377]</v>
       </c>
       <c r="B72" t="str">
         <v>611/23/T1-2436</v>
       </c>
-      <c r="C72" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C72" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D72" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E72" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="73" xml:space="preserve">
       <c r="A73" t="str">
         <v>SHYAM MEDICAL AGENCY[UP0377]</v>
       </c>
       <c r="B73" t="str">
         <v>611/23/T1-2437</v>
       </c>
-      <c r="C73" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C73" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D73" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E73" t="str">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="74" xml:space="preserve">
       <c r="A74" t="str">
         <v>RAI MEDICAL STORE[UP0385]</v>
       </c>
       <c r="B74" t="str">
         <v>611/23/T1-2438</v>
       </c>
-      <c r="C74" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C74" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D74" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E74" t="str">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>128100</v>
+      </c>
+    </row>
+    <row r="75" xml:space="preserve">
       <c r="A75" t="str">
         <v>RAI MEDICAL STORE[UP0385]</v>
       </c>
       <c r="B75" t="str">
         <v>611/23/T1-2439</v>
       </c>
-      <c r="C75" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C75" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D75" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E75" t="str">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>23500</v>
+      </c>
+    </row>
+    <row r="76" xml:space="preserve">
       <c r="A76" t="str">
         <v>JANTA DRUG AGENCY[UP0389]</v>
       </c>
       <c r="B76" t="str">
         <v>611/23/T1-2440</v>
       </c>
-      <c r="C76" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C76" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D76" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E76" t="str">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="77" xml:space="preserve">
       <c r="A77" t="str">
         <v>JANTA DRUG AGENCY[UP0389]</v>
       </c>
       <c r="B77" t="str">
         <v>611/23/T1-2441</v>
       </c>
-      <c r="C77" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C77" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D77" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E77" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="78" xml:space="preserve">
       <c r="A78" t="str">
         <v>AWADH MEDICAL AGENCIES[UP0390]</v>
       </c>
       <c r="B78" t="str">
         <v>611/23/T1-2442</v>
       </c>
-      <c r="C78" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C78" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D78" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E78" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="79" xml:space="preserve">
       <c r="A79" t="str">
         <v>ARVIND MEDICALS[UP0403]</v>
       </c>
       <c r="B79" t="str">
         <v>611/23/T1-2444</v>
       </c>
-      <c r="C79" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C79" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D79" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E79" t="str">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="80" xml:space="preserve">
       <c r="A80" t="str">
         <v>NEW PRAKASH PHARMA[UP0408]</v>
       </c>
       <c r="B80" t="str">
         <v>611/23/T1-2445</v>
       </c>
-      <c r="C80" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C80" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D80" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E80" t="str">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" xml:space="preserve">
       <c r="A81" t="str">
         <v>SHYAM MEDICAL AGENCIES[UP0410]</v>
       </c>
       <c r="B81" t="str">
         <v>611/23/T1-2446</v>
       </c>
-      <c r="C81" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C81" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D81" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E81" t="str">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="82" xml:space="preserve">
       <c r="A82" t="str">
         <v>POPULAR COMPANY[UP0412]</v>
       </c>
       <c r="B82" t="str">
         <v>611/23/T1-2447</v>
       </c>
-      <c r="C82" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C82" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D82" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E82" t="str">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="83" xml:space="preserve">
       <c r="A83" t="str">
         <v>RAVI AGENCY[UP0414]</v>
       </c>
       <c r="B83" t="str">
         <v>611/23/T1-2448</v>
       </c>
-      <c r="C83" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C83" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D83" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E83" t="str">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="84" xml:space="preserve">
       <c r="A84" t="str">
         <v>RAVI AGENCY[UP0414]</v>
       </c>
       <c r="B84" t="str">
         <v>611/23/T1-2449</v>
       </c>
-      <c r="C84" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C84" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D84" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E84" t="str">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="85" xml:space="preserve">
       <c r="A85" t="str">
         <v>RAVI AGENCY[UP0414]</v>
       </c>
       <c r="B85" t="str">
         <v>611/23/T1-2450</v>
       </c>
-      <c r="C85" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C85" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D85" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E85" t="str">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>9100</v>
+      </c>
+    </row>
+    <row r="86" xml:space="preserve">
       <c r="A86" t="str">
         <v>POPULAR MEDICAL HALL[UP0415]</v>
       </c>
       <c r="B86" t="str">
         <v>611/23/T1-2451</v>
       </c>
-      <c r="C86" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C86" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D86" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E86" t="str">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="87" xml:space="preserve">
       <c r="A87" t="str">
         <v>ASHA PHARMA[UP0416]</v>
       </c>
       <c r="B87" t="str">
         <v>611/23/T1-2452</v>
       </c>
-      <c r="C87" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C87" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D87" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E87" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="88" xml:space="preserve">
       <c r="A88" t="str">
         <v>ASHA PHARMA[UP0416]</v>
       </c>
       <c r="B88" t="str">
         <v>611/23/T1-2453</v>
       </c>
-      <c r="C88" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C88" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D88" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E88" t="str">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="89" xml:space="preserve">
       <c r="A89" t="str">
         <v>ASHA PHARMA[UP0416]</v>
       </c>
       <c r="B89" t="str">
         <v>611/23/T1-2454</v>
       </c>
-      <c r="C89" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C89" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D89" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E89" t="str">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="90" xml:space="preserve">
       <c r="A90" t="str">
         <v>AGARWAL AGENCIES[UP0417]</v>
       </c>
       <c r="B90" t="str">
         <v>611/23/T1-2455</v>
       </c>
-      <c r="C90" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C90" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D90" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E90" t="str">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>106700</v>
+      </c>
+    </row>
+    <row r="91" xml:space="preserve">
       <c r="A91" t="str">
         <v>AGARWAL AGENCIES[UP0417]</v>
       </c>
       <c r="B91" t="str">
         <v>611/23/T1-2456</v>
       </c>
-      <c r="C91" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C91" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D91" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E91" t="str">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>85400</v>
+      </c>
+    </row>
+    <row r="92" xml:space="preserve">
       <c r="A92" t="str">
         <v>AGARWAL DRUG STORES[UP0419]</v>
       </c>
       <c r="B92" t="str">
         <v>611/23/T1-2457</v>
       </c>
-      <c r="C92" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C92" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D92" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E92" t="str">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="93" xml:space="preserve">
       <c r="A93" t="str">
         <v>AGARWAL DRUG STORES[UP0419]</v>
       </c>
       <c r="B93" t="str">
         <v>611/23/T1-2458</v>
       </c>
-      <c r="C93" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C93" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D93" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E93" t="str">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="94" xml:space="preserve">
       <c r="A94" t="str">
         <v>AGARWAL DRUG STORES[UP0419]</v>
       </c>
       <c r="B94" t="str">
         <v>611/23/T1-2459</v>
       </c>
-      <c r="C94" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C94" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D94" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E94" t="str">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="95" xml:space="preserve">
       <c r="A95" t="str">
         <v>PRAVEEN MEDICAL STORES[UP0422]</v>
       </c>
       <c r="B95" t="str">
         <v>611/23/T1-2460</v>
       </c>
-      <c r="C95" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C95" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D95" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E95" t="str">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="96" xml:space="preserve">
       <c r="A96" t="str">
         <v>GARG MEDICAL AGENCY[UP0424]</v>
       </c>
       <c r="B96" t="str">
         <v>611/23/T1-2461</v>
       </c>
-      <c r="C96" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C96" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D96" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E96" t="str">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="97" xml:space="preserve">
       <c r="A97" t="str">
         <v>GARG MEDICAL AGENCY[UP0424]</v>
       </c>
       <c r="B97" t="str">
         <v>611/23/T1-2462</v>
       </c>
-      <c r="C97" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C97" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D97" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E97" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>043</v>
+      </c>
+    </row>
+    <row r="98" xml:space="preserve">
       <c r="A98" t="str">
         <v>KHATRI PHARMA[UP0430]</v>
       </c>
       <c r="B98" t="str">
         <v>611/23/T1-2463</v>
       </c>
-      <c r="C98" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C98" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D98" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E98" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="99" xml:space="preserve">
       <c r="A99" t="str">
         <v>JANTA MEDICAL STORE[UP0445]</v>
       </c>
       <c r="B99" t="str">
         <v>611/23/T1-2464</v>
       </c>
-      <c r="C99" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C99" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D99" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E99" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="100" xml:space="preserve">
       <c r="A100" t="str">
         <v>JANTA MEDICAL STORE[UP0445]</v>
       </c>
       <c r="B100" t="str">
         <v>611/23/T1-2465</v>
       </c>
-      <c r="C100" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C100" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D100" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E100" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="101" xml:space="preserve">
       <c r="A101" t="str">
         <v>CHANDRA MEDICAL STORE[UP0447]</v>
       </c>
       <c r="B101" t="str">
         <v>611/23/T1-2466</v>
       </c>
-      <c r="C101" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C101" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D101" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E101" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="102" xml:space="preserve">
       <c r="A102" t="str">
         <v>CHANDRA MEDICAL STORE[UP0447]</v>
       </c>
       <c r="B102" t="str">
         <v>611/23/T1-2467</v>
       </c>
-      <c r="C102" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C102" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D102" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E102" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="103">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="103" xml:space="preserve">
       <c r="A103" t="str">
         <v>DAWA GHAR[UP0454]</v>
       </c>
       <c r="B103" t="str">
         <v>611/23/T1-2468</v>
       </c>
-      <c r="C103" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C103" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D103" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E103" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="104">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="104" xml:space="preserve">
       <c r="A104" t="str">
         <v>SANA MEDICAL AGENCIES[UP0465]</v>
       </c>
       <c r="B104" t="str">
         <v>611/23/T1-2469</v>
       </c>
-      <c r="C104" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C104" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D104" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E104" t="str">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="105" xml:space="preserve">
       <c r="A105" t="str">
         <v>SANA MEDICAL AGENCIES[UP0465]</v>
       </c>
       <c r="B105" t="str">
         <v>611/23/T1-2470</v>
       </c>
-      <c r="C105" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C105" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D105" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E105" t="str">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="106">
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="106" xml:space="preserve">
       <c r="A106" t="str">
         <v>SINGHAL PHARMA[UP0467]</v>
       </c>
       <c r="B106" t="str">
         <v>611/23/T1-2471</v>
       </c>
-      <c r="C106" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C106" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D106" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E106" t="str">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="107" xml:space="preserve">
       <c r="A107" t="str">
         <v>SINGHAL PHARMA[UP0467]</v>
       </c>
       <c r="B107" t="str">
         <v>611/23/T1-2472</v>
       </c>
-      <c r="C107" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C107" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D107" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E107" t="str">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="108">
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="108" xml:space="preserve">
       <c r="A108" t="str">
         <v>KESARWANI CHEMIST[UP0473]</v>
       </c>
       <c r="B108" t="str">
         <v>611/23/T1-2473</v>
       </c>
-      <c r="C108" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C108" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D108" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E108" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="109">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="109" xml:space="preserve">
       <c r="A109" t="str">
         <v>KESARWANI CHEMIST[UP0473]</v>
       </c>
       <c r="B109" t="str">
         <v>611/23/T1-2474</v>
       </c>
-      <c r="C109" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C109" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D109" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E109" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="110">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="110" xml:space="preserve">
       <c r="A110" t="str">
         <v>KESARWANI CHEMIST[UP0473]</v>
       </c>
       <c r="B110" t="str">
         <v>611/23/T1-2475</v>
       </c>
-      <c r="C110" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C110" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D110" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E110" t="str">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="111">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="111" xml:space="preserve">
       <c r="A111" t="str">
         <v>NARULA MEDICAL AGENCY[UP0474]</v>
       </c>
       <c r="B111" t="str">
         <v>611/23/T1-2476</v>
       </c>
-      <c r="C111" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C111" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D111" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E111" t="str">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="112">
+        <v>20400</v>
+      </c>
+    </row>
+    <row r="112" xml:space="preserve">
       <c r="A112" t="str">
         <v>BABA PHARMACEUTICAL &amp; DISTRIBU[UP0477]</v>
       </c>
       <c r="B112" t="str">
         <v>611/23/T1-2477</v>
       </c>
-      <c r="C112" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C112" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D112" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E112" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="113">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="113" xml:space="preserve">
       <c r="A113" t="str">
         <v>BABA PHARMACEUTICAL &amp; DISTRIBU[UP0477]</v>
       </c>
       <c r="B113" t="str">
         <v>611/23/T1-2478</v>
       </c>
-      <c r="C113" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C113" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D113" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E113" t="str">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="114">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="114" xml:space="preserve">
       <c r="A114" t="str">
         <v>SHYAM MEDICAL AGENCIES[UP0478]</v>
       </c>
       <c r="B114" t="str">
         <v>611/23/T1-2479</v>
       </c>
-      <c r="C114" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C114" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D114" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E114" t="str">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="115">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="115" xml:space="preserve">
       <c r="A115" t="str">
         <v>SHYAM MEDICAL AGENCIES[UP0478]</v>
       </c>
       <c r="B115" t="str">
         <v>611/23/T1-2480</v>
       </c>
-      <c r="C115" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C115" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D115" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E115" t="str">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="116">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="116" xml:space="preserve">
       <c r="A116" t="str">
         <v>OM MEDICINE COMPANY[UP0481]</v>
       </c>
       <c r="B116" t="str">
         <v>611/23/T1-2481</v>
       </c>
-      <c r="C116" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C116" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D116" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E116" t="str">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>21300</v>
+      </c>
+    </row>
+    <row r="117" xml:space="preserve">
       <c r="A117" t="str">
         <v>OM MEDICINE COMPANY[UP0481]</v>
       </c>
       <c r="B117" t="str">
         <v>611/23/T1-2482</v>
       </c>
-      <c r="C117" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C117" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D117" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E117" t="str">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="118">
+        <v>23500</v>
+      </c>
+    </row>
+    <row r="118" xml:space="preserve">
       <c r="A118" t="str">
         <v>RASTOGI DRUG AGENCIES[UP0484]</v>
       </c>
       <c r="B118" t="str">
         <v>611/23/T1-2483</v>
       </c>
-      <c r="C118" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C118" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D118" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E118" t="str">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="119">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="119" xml:space="preserve">
       <c r="A119" t="str">
         <v>ANOOP PHARMA[UP0487]</v>
       </c>
       <c r="B119" t="str">
         <v>611/23/T1-2484</v>
       </c>
-      <c r="C119" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C119" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D119" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E119" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="120">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="120" xml:space="preserve">
       <c r="A120" t="str">
         <v>ANOOP PHARMA[UP0487]</v>
       </c>
       <c r="B120" t="str">
         <v>611/23/T1-2485</v>
       </c>
-      <c r="C120" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C120" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D120" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E120" t="str">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="121" xml:space="preserve">
       <c r="A121" t="str">
         <v>RADHA SWAMI DISTRIBUTORS[UP0495]</v>
       </c>
       <c r="B121" t="str">
         <v>611/23/T1-2486</v>
       </c>
-      <c r="C121" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C121" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D121" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E121" t="str">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="122">
+        <v>17100</v>
+      </c>
+    </row>
+    <row r="122" xml:space="preserve">
       <c r="A122" t="str">
         <v>RADHA SWAMI DISTRIBUTORS[UP0495]</v>
       </c>
       <c r="B122" t="str">
         <v>611/23/T1-2487</v>
       </c>
-      <c r="C122" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C122" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D122" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E122" t="str">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="123">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="123" xml:space="preserve">
       <c r="A123" t="str">
         <v>RADHA SWAMI DISTRIBUTORS[UP0495]</v>
       </c>
       <c r="B123" t="str">
         <v>611/23/T1-2488</v>
       </c>
-      <c r="C123" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C123" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D123" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E123" t="str">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="124">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="124" xml:space="preserve">
       <c r="A124" t="str">
         <v>RADHA SWAMI DISTRIBUTORS[UP0495]</v>
       </c>
       <c r="B124" t="str">
         <v>611/23/T1-2489</v>
       </c>
-      <c r="C124" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C124" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D124" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E124" t="str">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="125">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="125" xml:space="preserve">
       <c r="A125" t="str">
         <v>AGARWAL PHARMA[UP0500]</v>
       </c>
       <c r="B125" t="str">
         <v>611/23/T1-2490</v>
       </c>
-      <c r="C125" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C125" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D125" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E125" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="126">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="126" xml:space="preserve">
       <c r="A126" t="str">
         <v>AGARWAL PHARMA[UP0500]</v>
       </c>
       <c r="B126" t="str">
         <v>611/23/T1-2491</v>
       </c>
-      <c r="C126" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C126" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D126" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E126" t="str">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="127">
+        <v>14100</v>
+      </c>
+    </row>
+    <row r="127" xml:space="preserve">
       <c r="A127" t="str">
         <v>SIDDHARTH MEDICAL AGENCY[UP0507]</v>
       </c>
       <c r="B127" t="str">
         <v>611/23/T1-2492</v>
       </c>
-      <c r="C127" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C127" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D127" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E127" t="str">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="128">
+        <v>17100</v>
+      </c>
+    </row>
+    <row r="128" xml:space="preserve">
       <c r="A128" t="str">
         <v>SIDDHARTH MEDICAL AGENCY[UP0507]</v>
       </c>
       <c r="B128" t="str">
         <v>611/23/T1-2493</v>
       </c>
-      <c r="C128" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C128" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D128" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E128" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="129">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="129" xml:space="preserve">
       <c r="A129" t="str">
         <v>SIDDHARTH MEDICAL AGENCY[UP0507]</v>
       </c>
       <c r="B129" t="str">
         <v>611/23/T1-2494</v>
       </c>
-      <c r="C129" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C129" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D129" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E129" t="str">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="130">
+        <v>13300</v>
+      </c>
+    </row>
+    <row r="130" xml:space="preserve">
       <c r="A130" t="str">
         <v>KRISHNA MEDICALS[UP0510]</v>
       </c>
       <c r="B130" t="str">
         <v>611/23/T1-2495</v>
       </c>
-      <c r="C130" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C130" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D130" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E130" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="131">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="131" xml:space="preserve">
       <c r="A131" t="str">
         <v>GOYAL CHEMISTS[UP0522]</v>
       </c>
       <c r="B131" t="str">
         <v>611/23/T1-2496</v>
       </c>
-      <c r="C131" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C131" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D131" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E131" t="str">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="132">
+        <v>12200</v>
+      </c>
+    </row>
+    <row r="132" xml:space="preserve">
       <c r="A132" t="str">
         <v>GOYAL CHEMISTS[UP0522]</v>
       </c>
       <c r="B132" t="str">
         <v>611/23/T1-2497</v>
       </c>
-      <c r="C132" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C132" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D132" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E132" t="str">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="133">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="133" xml:space="preserve">
       <c r="A133" t="str">
         <v>GOYAL CHEMISTS[UP0522]</v>
       </c>
       <c r="B133" t="str">
         <v>611/23/T1-2498</v>
       </c>
-      <c r="C133" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C133" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D133" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E133" t="str">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="134">
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="134" xml:space="preserve">
       <c r="A134" t="str">
         <v>GOYAL CHEMISTS[UP0522]</v>
       </c>
       <c r="B134" t="str">
         <v>611/23/T1-2499</v>
       </c>
-      <c r="C134" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C134" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D134" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E134" t="str">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="135">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="135" xml:space="preserve">
       <c r="A135" t="str">
         <v>RAKESH MEDICAL HALL[UP0524]</v>
       </c>
       <c r="B135" t="str">
         <v>611/23/T1-2500</v>
       </c>
-      <c r="C135" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C135" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D135" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E135" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="136">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="136" xml:space="preserve">
       <c r="A136" t="str">
         <v>RAKESH MEDICAL HALL[UP0524]</v>
       </c>
       <c r="B136" t="str">
         <v>611/23/T1-2501</v>
       </c>
-      <c r="C136" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C136" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D136" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E136" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="137">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="137" xml:space="preserve">
       <c r="A137" t="str">
         <v>RAKESH MEDICAL HALL[UP0524]</v>
       </c>
       <c r="B137" t="str">
         <v>611/23/T1-2502</v>
       </c>
-      <c r="C137" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C137" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D137" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E137" t="str">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="138">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="138" xml:space="preserve">
       <c r="A138" t="str">
         <v>SUSHIL MEDICAL AGENCY[UP0538]</v>
       </c>
       <c r="B138" t="str">
         <v>611/23/T1-2503</v>
       </c>
-      <c r="C138" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C138" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D138" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E138" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="139">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="139" xml:space="preserve">
       <c r="A139" t="str">
         <v>PREM MEDICAL STORE[UP0541]</v>
       </c>
       <c r="B139" t="str">
         <v>611/23/T1-2504</v>
       </c>
-      <c r="C139" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C139" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D139" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E139" t="str">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="140">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="140" xml:space="preserve">
       <c r="A140" t="str">
         <v>PREM MEDICAL STORE[UP0541]</v>
       </c>
       <c r="B140" t="str">
         <v>611/23/T1-2505</v>
       </c>
-      <c r="C140" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C140" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D140" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E140" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="141">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="141" xml:space="preserve">
       <c r="A141" t="str">
         <v>PREM MEDICAL STORE[UP0541]</v>
       </c>
       <c r="B141" t="str">
         <v>611/23/T1-2506</v>
       </c>
-      <c r="C141" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C141" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D141" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E141" t="str">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="142">
+        <v>17100</v>
+      </c>
+    </row>
+    <row r="142" xml:space="preserve">
       <c r="A142" t="str">
         <v>PRAKASH MEDICAL STORE[UP0543]</v>
       </c>
       <c r="B142" t="str">
         <v>611/23/T1-2507</v>
       </c>
-      <c r="C142" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C142" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D142" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E142" t="str">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="143">
+        <v>23500</v>
+      </c>
+    </row>
+    <row r="143" xml:space="preserve">
       <c r="A143" t="str">
         <v>JAI MEDICAL STORE[UP0544]</v>
       </c>
       <c r="B143" t="str">
         <v>611/23/T1-2508</v>
       </c>
-      <c r="C143" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C143" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D143" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E143" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="144">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="144" xml:space="preserve">
       <c r="A144" t="str">
         <v>POPULAR DRUG AGENCIES[UP0548]</v>
       </c>
       <c r="B144" t="str">
         <v>611/23/T1-2509</v>
       </c>
-      <c r="C144" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C144" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D144" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E144" t="str">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="145">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="145" xml:space="preserve">
       <c r="A145" t="str">
         <v>POPULAR DRUG AGENCIES[UP0548]</v>
       </c>
       <c r="B145" t="str">
         <v>611/23/T1-2510</v>
       </c>
-      <c r="C145" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C145" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D145" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E145" t="str">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="146">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="146" xml:space="preserve">
       <c r="A146" t="str">
         <v>BANSAL MEDICAL AGENCIES[UP0552]</v>
       </c>
       <c r="B146" t="str">
         <v>611/23/T1-2511</v>
       </c>
-      <c r="C146" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C146" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D146" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E146" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="147">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="147" xml:space="preserve">
       <c r="A147" t="str">
         <v>BANSAL MEDICAL AGENCIES[UP0552]</v>
       </c>
       <c r="B147" t="str">
         <v>611/23/T1-2512</v>
       </c>
-      <c r="C147" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C147" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D147" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E147" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="148">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="148" xml:space="preserve">
       <c r="A148" t="str">
         <v>BANSAL MEDICAL AGENCIES[UP0552]</v>
       </c>
       <c r="B148" t="str">
         <v>611/23/T1-2513</v>
       </c>
-      <c r="C148" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C148" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D148" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E148" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="149">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="149" xml:space="preserve">
       <c r="A149" t="str">
         <v>A.B.PHARMA[UP0553]</v>
       </c>
       <c r="B149" t="str">
         <v>611/23/T1-2514</v>
       </c>
-      <c r="C149" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C149" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D149" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E149" t="str">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="150">
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="150" xml:space="preserve">
       <c r="A150" t="str">
         <v>KANT MEDICAL STORE[UP0554]</v>
       </c>
       <c r="B150" t="str">
         <v>611/23/T1-2515</v>
       </c>
-      <c r="C150" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C150" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D150" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E150" t="str">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="151">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="151" xml:space="preserve">
       <c r="A151" t="str">
         <v>GARG PHARMACEUTICALS[UP0557]</v>
       </c>
       <c r="B151" t="str">
         <v>611/23/T1-2516</v>
       </c>
-      <c r="C151" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C151" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D151" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E151" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="152">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="152" xml:space="preserve">
       <c r="A152" t="str">
         <v>NEW BAJPAI MEDICAL STORE[UP0558]</v>
       </c>
       <c r="B152" t="str">
         <v>611/23/T1-2517</v>
       </c>
-      <c r="C152" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C152" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D152" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E152" t="str">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="153">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="153" xml:space="preserve">
       <c r="A153" t="str">
         <v>VIJAY MEDICAL AGENCIES[UP0568]</v>
       </c>
       <c r="B153" t="str">
         <v>611/23/T1-2518</v>
       </c>
-      <c r="C153" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C153" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D153" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E153" t="str">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="154">
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="154" xml:space="preserve">
       <c r="A154" t="str">
         <v>DHAWAN BROTHERS[UP0574]</v>
       </c>
       <c r="B154" t="str">
         <v>611/23/T1-2519</v>
       </c>
-      <c r="C154" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C154" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D154" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E154" t="str">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="155">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="155" xml:space="preserve">
       <c r="A155" t="str">
         <v>MAA BHAGAWATI MEDICAL AGENCY[UP0578]</v>
       </c>
       <c r="B155" t="str">
         <v>611/23/T1-2520</v>
       </c>
-      <c r="C155" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C155" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D155" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E155" t="str">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="156">
+        <v>25300</v>
+      </c>
+    </row>
+    <row r="156" xml:space="preserve">
       <c r="A156" t="str">
         <v>MAA BHAGAWATI MEDICAL AGENCY[UP0578]</v>
       </c>
       <c r="B156" t="str">
         <v>611/23/T1-2521</v>
       </c>
-      <c r="C156" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C156" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D156" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E156" t="str">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="157">
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="157" xml:space="preserve">
       <c r="A157" t="str">
         <v>MAA BHAGAWATI MEDICAL AGENCY[UP0578]</v>
       </c>
       <c r="B157" t="str">
         <v>611/23/T1-2522</v>
       </c>
-      <c r="C157" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C157" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D157" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E157" t="str">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="158">
+        <v>14100</v>
+      </c>
+    </row>
+    <row r="158" xml:space="preserve">
       <c r="A158" t="str">
         <v>OM PRAKASH AND SONS[UP0586]</v>
       </c>
       <c r="B158" t="str">
         <v>611/23/T1-2523</v>
       </c>
-      <c r="C158" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C158" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D158" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E158" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="159">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="159" xml:space="preserve">
       <c r="A159" t="str">
         <v>OM PRAKASH AND SONS[UP0586]</v>
       </c>
       <c r="B159" t="str">
         <v>611/23/T1-2524</v>
       </c>
-      <c r="C159" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C159" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D159" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E159" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="160">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="160" xml:space="preserve">
       <c r="A160" t="str">
         <v>OM PRAKASH AND SONS[UP0586]</v>
       </c>
       <c r="B160" t="str">
         <v>611/23/T1-2525</v>
       </c>
-      <c r="C160" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C160" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D160" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E160" t="str">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="161">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="161" xml:space="preserve">
       <c r="A161" t="str">
         <v>SRI SITARAM AGENCIES[UP0587]</v>
       </c>
       <c r="B161" t="str">
         <v>611/23/T1-2526</v>
       </c>
-      <c r="C161" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C161" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D161" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E161" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="162">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="162" xml:space="preserve">
       <c r="A162" t="str">
         <v>SRI SITARAM AGENCIES[UP0587]</v>
       </c>
       <c r="B162" t="str">
         <v>611/23/T1-2527</v>
       </c>
-      <c r="C162" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C162" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D162" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E162" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="163">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="163" xml:space="preserve">
       <c r="A163" t="str">
         <v>SRI SITARAM AGENCIES[UP0587]</v>
       </c>
       <c r="B163" t="str">
         <v>611/23/T1-2528</v>
       </c>
-      <c r="C163" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C163" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D163" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E163" t="str">
-        <v>94</v>
+        <v>9400</v>
       </c>
     </row>
     <row r="164" xml:space="preserve">
@@ -3181,14 +3343,15 @@
       <c r="B164" t="str">
         <v>611/23/T1-2529</v>
       </c>
-      <c r="C164" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C164" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D164" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E164" t="str">
-        <v>128</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="165" xml:space="preserve">
@@ -3199,388 +3362,411 @@
       <c r="B165" t="str">
         <v>611/23/T1-2530</v>
       </c>
-      <c r="C165" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C165" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D165" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E165" t="str">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="166">
+        <v>14100</v>
+      </c>
+    </row>
+    <row r="166" xml:space="preserve">
       <c r="A166" t="str">
         <v>J.J.AGENCIES[UP0593]</v>
       </c>
       <c r="B166" t="str">
         <v>611/23/T1-2531</v>
       </c>
-      <c r="C166" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C166" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D166" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E166" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="167">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="167" xml:space="preserve">
       <c r="A167" t="str">
         <v>ASHUTOSH  PHARMA[UP0594]</v>
       </c>
       <c r="B167" t="str">
         <v>611/23/T1-2532</v>
       </c>
-      <c r="C167" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C167" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D167" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E167" t="str">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="168">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="168" xml:space="preserve">
       <c r="A168" t="str">
         <v>G.K.BROTHERS[UP0599]</v>
       </c>
       <c r="B168" t="str">
         <v>611/23/T1-2533</v>
       </c>
-      <c r="C168" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C168" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D168" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E168" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="169">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="169" xml:space="preserve">
       <c r="A169" t="str">
         <v>G.K.BROTHERS[UP0599]</v>
       </c>
       <c r="B169" t="str">
         <v>611/23/T1-2534</v>
       </c>
-      <c r="C169" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C169" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D169" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E169" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="170">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="170" xml:space="preserve">
       <c r="A170" t="str">
         <v>G.K.BROTHERS[UP0599]</v>
       </c>
       <c r="B170" t="str">
         <v>611/23/T1-2535</v>
       </c>
-      <c r="C170" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C170" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D170" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E170" t="str">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="171">
+        <v>39300</v>
+      </c>
+    </row>
+    <row r="171" xml:space="preserve">
       <c r="A171" t="str">
         <v>MAYURI   PHARMACEUTICALS[UP0601]</v>
       </c>
       <c r="B171" t="str">
         <v>611/23/T1-2536</v>
       </c>
-      <c r="C171" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C171" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D171" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E171" t="str">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="172">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="172" xml:space="preserve">
       <c r="A172" t="str">
         <v>MAYURI   PHARMACEUTICALS[UP0601]</v>
       </c>
       <c r="B172" t="str">
         <v>611/23/T1-2537</v>
       </c>
-      <c r="C172" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C172" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D172" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E172" t="str">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="173">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="173" xml:space="preserve">
       <c r="A173" t="str">
         <v>MAYURI   PHARMACEUTICALS[UP0601]</v>
       </c>
       <c r="B173" t="str">
         <v>611/23/T1-2538</v>
       </c>
-      <c r="C173" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C173" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D173" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E173" t="str">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="174">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="174" xml:space="preserve">
       <c r="A174" t="str">
         <v>SARASWATI MEDICAL AGENCY[UP0610]</v>
       </c>
       <c r="B174" t="str">
         <v>611/23/T1-2539</v>
       </c>
-      <c r="C174" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C174" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D174" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E174" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="175">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="175" xml:space="preserve">
       <c r="A175" t="str">
         <v>B.K DRUG AGENCY[UP0614]</v>
       </c>
       <c r="B175" t="str">
         <v>611/23/T1-2540</v>
       </c>
-      <c r="C175" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C175" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D175" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E175" t="str">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="176">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="176" xml:space="preserve">
       <c r="A176" t="str">
         <v>B.K DRUG AGENCY[UP0614]</v>
       </c>
       <c r="B176" t="str">
         <v>611/23/T1-2541</v>
       </c>
-      <c r="C176" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C176" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D176" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E176" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="177">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="177" xml:space="preserve">
       <c r="A177" t="str">
         <v>RAKESH PHARMA[UP0615]</v>
       </c>
       <c r="B177" t="str">
         <v>611/23/T1-2542</v>
       </c>
-      <c r="C177" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C177" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D177" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E177" t="str">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="178">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="178" xml:space="preserve">
       <c r="A178" t="str">
         <v>JAMUNA MEDICAL AGENCIES[UP0618]</v>
       </c>
       <c r="B178" t="str">
         <v>611/23/T1-2543</v>
       </c>
-      <c r="C178" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C178" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D178" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E178" t="str">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="179">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="179" xml:space="preserve">
       <c r="A179" t="str">
         <v>SARAS MEDICAL AGENCIES[UP0619]</v>
       </c>
       <c r="B179" t="str">
         <v>611/23/T1-2544</v>
       </c>
-      <c r="C179" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C179" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D179" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E179" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="180">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="180" xml:space="preserve">
       <c r="A180" t="str">
         <v>SARAS MEDICAL AGENCIES[UP0619]</v>
       </c>
       <c r="B180" t="str">
         <v>611/23/T1-2545</v>
       </c>
-      <c r="C180" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C180" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D180" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E180" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="181">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="181" xml:space="preserve">
       <c r="A181" t="str">
         <v>SARAS MEDICAL AGENCIES[UP0619]</v>
       </c>
       <c r="B181" t="str">
         <v>611/23/T1-2546</v>
       </c>
-      <c r="C181" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C181" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D181" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E181" t="str">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="182">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="182" xml:space="preserve">
       <c r="A182" t="str">
         <v>SARAS MEDICAL AGENCIES[UP0619]</v>
       </c>
       <c r="B182" t="str">
         <v>611/23/T1-2547</v>
       </c>
-      <c r="C182" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C182" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D182" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E182" t="str">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="183">
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="183" xml:space="preserve">
       <c r="A183" t="str">
         <v>KANAHAIYA LAL PRAYAG DUTTA[UP0621]</v>
       </c>
       <c r="B183" t="str">
         <v>611/23/T1-2548</v>
       </c>
-      <c r="C183" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C183" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D183" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E183" t="str">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="184">
+        <v>21300</v>
+      </c>
+    </row>
+    <row r="184" xml:space="preserve">
       <c r="A184" t="str">
         <v>KANAHAIYA LAL PRAYAG DUTTA[UP0621]</v>
       </c>
       <c r="B184" t="str">
         <v>611/23/T1-2549</v>
       </c>
-      <c r="C184" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C184" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D184" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E184" t="str">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="185">
+        <v>25400</v>
+      </c>
+    </row>
+    <row r="185" xml:space="preserve">
       <c r="A185" t="str">
         <v>KANAHAIYA LAL PRAYAG DUTTA[UP0621]</v>
       </c>
       <c r="B185" t="str">
         <v>611/23/T1-2550</v>
       </c>
-      <c r="C185" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C185" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D185" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E185" t="str">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="186">
+        <v>17100</v>
+      </c>
+    </row>
+    <row r="186" xml:space="preserve">
       <c r="A186" t="str">
         <v>KANAHAIYA LAL PRAYAG DUTTA[UP0621]</v>
       </c>
       <c r="B186" t="str">
         <v>611/23/T1-2551</v>
       </c>
-      <c r="C186" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C186" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D186" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E186" t="str">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="187">
+        <v>35400</v>
+      </c>
+    </row>
+    <row r="187" xml:space="preserve">
       <c r="A187" t="str">
         <v>SHRI RAM DUTT PHARMA[UP0624]</v>
       </c>
       <c r="B187" t="str">
         <v>611/23/T1-2552</v>
       </c>
-      <c r="C187" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C187" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D187" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E187" t="str">
-        <v>24</v>
+        <v>2400</v>
       </c>
     </row>
   </sheetData>
